--- a/elitteMoveis-planejamento/Documentos -apresentação/GRAFICO GANTT TCC.xlsx
+++ b/elitteMoveis-planejamento/Documentos -apresentação/GRAFICO GANTT TCC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Atividades dia 6\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ElitteM\elitteMoveis-planejamento\Documentos -apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9740"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -307,21 +307,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -333,7 +318,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -424,9 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -713,21 +695,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="19" width="10.140625" customWidth="1"/>
-    <col min="20" max="26" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="15" width="11.7265625" customWidth="1"/>
+    <col min="16" max="19" width="10.1796875" customWidth="1"/>
+    <col min="20" max="26" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -755,7 +737,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -784,7 +766,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
@@ -815,7 +797,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -844,7 +826,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -879,7 +861,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
@@ -908,7 +890,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="36" t="s">
         <v>1</v>
@@ -939,7 +921,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="36"/>
       <c r="C8" s="33"/>
@@ -970,7 +952,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -1021,7 +1003,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1033,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1063,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
@@ -1111,7 +1093,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1123,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
         <v>20</v>
       </c>
@@ -1171,7 +1153,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
@@ -1201,7 +1183,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B16" s="31" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1213,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B17" s="31" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +1243,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1273,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B19" s="31" t="s">
         <v>25</v>
       </c>
@@ -1301,8 +1283,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1321,7 +1303,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
         <v>26</v>
       </c>
@@ -1332,8 +1314,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="25"/>
@@ -1351,7 +1333,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
@@ -1363,8 +1345,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="1"/>
       <c r="N21" s="25"/>
       <c r="O21" s="3"/>
@@ -1381,7 +1363,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B22" s="31" t="s">
         <v>28</v>
       </c>
@@ -1394,8 +1376,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="25"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1411,7 +1393,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B23" s="31" t="s">
         <v>29</v>
       </c>
@@ -1426,7 +1408,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="37"/>
+      <c r="N23" s="32"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1441,7 +1423,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B24" s="31"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1469,7 +1451,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1497,7 +1479,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B26" s="31"/>
       <c r="N26" s="25"/>
       <c r="O26" s="3"/>
@@ -1514,7 +1496,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B27" s="31"/>
       <c r="N27" s="25"/>
       <c r="O27" s="3"/>
@@ -1531,7 +1513,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B28" s="31"/>
       <c r="N28" s="25"/>
       <c r="O28" s="3"/>
@@ -1548,7 +1530,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B29" s="31"/>
       <c r="N29" s="25"/>
       <c r="O29" s="3"/>
@@ -1565,7 +1547,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B30" s="31"/>
       <c r="N30" s="25"/>
       <c r="O30" s="3"/>
@@ -1582,7 +1564,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B31" s="31"/>
       <c r="N31" s="25"/>
       <c r="O31" s="3"/>
@@ -1599,7 +1581,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.35">
       <c r="N32" s="25"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -1615,7 +1597,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:27" x14ac:dyDescent="0.35">
       <c r="N33" s="25"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -1631,7 +1613,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:27" x14ac:dyDescent="0.35">
       <c r="N34" s="25"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -1647,7 +1629,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:27" x14ac:dyDescent="0.35">
       <c r="N35" s="25"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -1663,7 +1645,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:27" x14ac:dyDescent="0.35">
       <c r="N36" s="25"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -1679,7 +1661,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:27" x14ac:dyDescent="0.35">
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -1687,7 +1669,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:27" x14ac:dyDescent="0.35">
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
